--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3526,6 +3526,71 @@
         <v>35</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>54</v>
+      </c>
+      <c r="C48" t="n">
+        <v>132</v>
+      </c>
+      <c r="D48" t="n">
+        <v>36</v>
+      </c>
+      <c r="E48" t="n">
+        <v>28</v>
+      </c>
+      <c r="F48" t="n">
+        <v>105</v>
+      </c>
+      <c r="G48" t="n">
+        <v>35</v>
+      </c>
+      <c r="H48" t="n">
+        <v>13</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>28</v>
+      </c>
+      <c r="K48" t="n">
+        <v>256</v>
+      </c>
+      <c r="L48" t="n">
+        <v>48</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>9</v>
+      </c>
+      <c r="O48" t="n">
+        <v>71.81245430644735</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.5684946875</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>7.558445418095082</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4.573200992555831</v>
+      </c>
+      <c r="S48" t="n">
+        <v>23.41597796143251</v>
+      </c>
+      <c r="T48" t="n">
+        <v>42.81757672064627</v>
+      </c>
+      <c r="U48" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3591,6 +3591,71 @@
         <v>40</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>53</v>
+      </c>
+      <c r="C49" t="n">
+        <v>142</v>
+      </c>
+      <c r="D49" t="n">
+        <v>32</v>
+      </c>
+      <c r="E49" t="n">
+        <v>30</v>
+      </c>
+      <c r="F49" t="n">
+        <v>107</v>
+      </c>
+      <c r="G49" t="n">
+        <v>28</v>
+      </c>
+      <c r="H49" t="n">
+        <v>13</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26</v>
+      </c>
+      <c r="J49" t="n">
+        <v>26</v>
+      </c>
+      <c r="K49" t="n">
+        <v>251</v>
+      </c>
+      <c r="L49" t="n">
+        <v>44</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>15</v>
+      </c>
+      <c r="O49" t="n">
+        <v>70.67346327493405</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.5447937475</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>9.129938744816394</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4.641975308641975</v>
+      </c>
+      <c r="S49" t="n">
+        <v>23.48066298342541</v>
+      </c>
+      <c r="T49" t="n">
+        <v>43.25966853627947</v>
+      </c>
+      <c r="U49" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3656,6 +3656,71 @@
         <v>43</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>51</v>
+      </c>
+      <c r="C50" t="n">
+        <v>141</v>
+      </c>
+      <c r="D50" t="n">
+        <v>33</v>
+      </c>
+      <c r="E50" t="n">
+        <v>31</v>
+      </c>
+      <c r="F50" t="n">
+        <v>107</v>
+      </c>
+      <c r="G50" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" t="n">
+        <v>11</v>
+      </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>20</v>
+      </c>
+      <c r="K50" t="n">
+        <v>257</v>
+      </c>
+      <c r="L50" t="n">
+        <v>39</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>14</v>
+      </c>
+      <c r="O50" t="n">
+        <v>75.5241881532655</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6025309600000001</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>10.17886116334098</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4.584158415841584</v>
+      </c>
+      <c r="S50" t="n">
+        <v>20.27777777777778</v>
+      </c>
+      <c r="T50" t="n">
+        <v>43.29590932089594</v>
+      </c>
+      <c r="U50" t="n">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3721,6 +3721,71 @@
         <v>44</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>53</v>
+      </c>
+      <c r="C51" t="n">
+        <v>140</v>
+      </c>
+      <c r="D51" t="n">
+        <v>30</v>
+      </c>
+      <c r="E51" t="n">
+        <v>35</v>
+      </c>
+      <c r="F51" t="n">
+        <v>106</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14</v>
+      </c>
+      <c r="I51" t="n">
+        <v>27</v>
+      </c>
+      <c r="J51" t="n">
+        <v>17</v>
+      </c>
+      <c r="K51" t="n">
+        <v>254</v>
+      </c>
+      <c r="L51" t="n">
+        <v>45</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>13</v>
+      </c>
+      <c r="O51" t="n">
+        <v>75.50306311633513</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.6660534300000001</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>9.146983101300002</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4.518610421836228</v>
+      </c>
+      <c r="S51" t="n">
+        <v>21.06741573033708</v>
+      </c>
+      <c r="T51" t="n">
+        <v>43.46726079953825</v>
+      </c>
+      <c r="U51" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,6 +3786,71 @@
         <v>47</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>53</v>
+      </c>
+      <c r="C52" t="n">
+        <v>141</v>
+      </c>
+      <c r="D52" t="n">
+        <v>34</v>
+      </c>
+      <c r="E52" t="n">
+        <v>35</v>
+      </c>
+      <c r="F52" t="n">
+        <v>104</v>
+      </c>
+      <c r="G52" t="n">
+        <v>24</v>
+      </c>
+      <c r="H52" t="n">
+        <v>15</v>
+      </c>
+      <c r="I52" t="n">
+        <v>19</v>
+      </c>
+      <c r="J52" t="n">
+        <v>19</v>
+      </c>
+      <c r="K52" t="n">
+        <v>266</v>
+      </c>
+      <c r="L52" t="n">
+        <v>41</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>15</v>
+      </c>
+      <c r="O52" t="n">
+        <v>75.39034597813395</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.4968524925</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>9.5143205393</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.460591133004926</v>
+      </c>
+      <c r="S52" t="n">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="T52" t="n">
+        <v>42.49873171555701</v>
+      </c>
+      <c r="U52" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3851,6 +3851,71 @@
         <v>46</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>53</v>
+      </c>
+      <c r="C53" t="n">
+        <v>138</v>
+      </c>
+      <c r="D53" t="n">
+        <v>32</v>
+      </c>
+      <c r="E53" t="n">
+        <v>36</v>
+      </c>
+      <c r="F53" t="n">
+        <v>107</v>
+      </c>
+      <c r="G53" t="n">
+        <v>25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>15</v>
+      </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>18</v>
+      </c>
+      <c r="K53" t="n">
+        <v>257</v>
+      </c>
+      <c r="L53" t="n">
+        <v>43</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>19</v>
+      </c>
+      <c r="O53" t="n">
+        <v>74.66531745110142</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.5396347500000001</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>9.212917394800002</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.512315270935961</v>
+      </c>
+      <c r="S53" t="n">
+        <v>22.3463687150838</v>
+      </c>
+      <c r="T53" t="n">
+        <v>43.5999518823381</v>
+      </c>
+      <c r="U53" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3916,6 +3916,71 @@
         <v>48</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>142</v>
+      </c>
+      <c r="D54" t="n">
+        <v>28</v>
+      </c>
+      <c r="E54" t="n">
+        <v>36</v>
+      </c>
+      <c r="F54" t="n">
+        <v>106</v>
+      </c>
+      <c r="G54" t="n">
+        <v>27</v>
+      </c>
+      <c r="H54" t="n">
+        <v>14</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="n">
+        <v>19</v>
+      </c>
+      <c r="K54" t="n">
+        <v>254</v>
+      </c>
+      <c r="L54" t="n">
+        <v>39</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>18</v>
+      </c>
+      <c r="O54" t="n">
+        <v>74.75845499873027</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.537735005</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>9.102032843799998</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.502463054187192</v>
+      </c>
+      <c r="S54" t="n">
+        <v>21.28851540616246</v>
+      </c>
+      <c r="T54" t="n">
+        <v>43.85695250966731</v>
+      </c>
+      <c r="U54" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3981,6 +3981,71 @@
         <v>49</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>145</v>
+      </c>
+      <c r="D55" t="n">
+        <v>26</v>
+      </c>
+      <c r="E55" t="n">
+        <v>35</v>
+      </c>
+      <c r="F55" t="n">
+        <v>102</v>
+      </c>
+      <c r="G55" t="n">
+        <v>27</v>
+      </c>
+      <c r="H55" t="n">
+        <v>15</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21</v>
+      </c>
+      <c r="K55" t="n">
+        <v>256</v>
+      </c>
+      <c r="L55" t="n">
+        <v>36</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>16</v>
+      </c>
+      <c r="O55" t="n">
+        <v>77.8142023154243</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.55422498</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>9.0457512863</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4.488833746898263</v>
+      </c>
+      <c r="S55" t="n">
+        <v>20.50561797752809</v>
+      </c>
+      <c r="T55" t="n">
+        <v>43.58638251744928</v>
+      </c>
+      <c r="U55" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4046,6 +4046,71 @@
         <v>47</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>53</v>
+      </c>
+      <c r="C56" t="n">
+        <v>148</v>
+      </c>
+      <c r="D56" t="n">
+        <v>26</v>
+      </c>
+      <c r="E56" t="n">
+        <v>34</v>
+      </c>
+      <c r="F56" t="n">
+        <v>101</v>
+      </c>
+      <c r="G56" t="n">
+        <v>25</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14</v>
+      </c>
+      <c r="I56" t="n">
+        <v>33</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
+      <c r="K56" t="n">
+        <v>255</v>
+      </c>
+      <c r="L56" t="n">
+        <v>42</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>12</v>
+      </c>
+      <c r="O56" t="n">
+        <v>79.22384512911626</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.6643214850000001</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>9.130046511300002</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4.413965087281795</v>
+      </c>
+      <c r="S56" t="n">
+        <v>18.64406779661017</v>
+      </c>
+      <c r="T56" t="n">
+        <v>42.96077135207864</v>
+      </c>
+      <c r="U56" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4111,6 +4111,71 @@
         <v>47</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>57</v>
+      </c>
+      <c r="C57" t="n">
+        <v>163</v>
+      </c>
+      <c r="D57" t="n">
+        <v>34</v>
+      </c>
+      <c r="E57" t="n">
+        <v>38</v>
+      </c>
+      <c r="F57" t="n">
+        <v>81</v>
+      </c>
+      <c r="G57" t="n">
+        <v>22</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22</v>
+      </c>
+      <c r="K57" t="n">
+        <v>279</v>
+      </c>
+      <c r="L57" t="n">
+        <v>42</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>7</v>
+      </c>
+      <c r="O57" t="n">
+        <v>79.18242063459448</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.2454417</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>10.58544756717931</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4.248780487804878</v>
+      </c>
+      <c r="S57" t="n">
+        <v>19.50549450549451</v>
+      </c>
+      <c r="T57" t="n">
+        <v>36.94276775354734</v>
+      </c>
+      <c r="U57" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4176,6 +4176,71 @@
         <v>46</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>60</v>
+      </c>
+      <c r="C58" t="n">
+        <v>159</v>
+      </c>
+      <c r="D58" t="n">
+        <v>24</v>
+      </c>
+      <c r="E58" t="n">
+        <v>49</v>
+      </c>
+      <c r="F58" t="n">
+        <v>82</v>
+      </c>
+      <c r="G58" t="n">
+        <v>22</v>
+      </c>
+      <c r="H58" t="n">
+        <v>14</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15</v>
+      </c>
+      <c r="J58" t="n">
+        <v>24</v>
+      </c>
+      <c r="K58" t="n">
+        <v>267</v>
+      </c>
+      <c r="L58" t="n">
+        <v>44</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>12</v>
+      </c>
+      <c r="O58" t="n">
+        <v>79.76375316695754</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.268481545</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>11.06033806316842</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4.114634146341463</v>
+      </c>
+      <c r="S58" t="n">
+        <v>22.09944751381216</v>
+      </c>
+      <c r="T58" t="n">
+        <v>37.83293746381411</v>
+      </c>
+      <c r="U58" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4241,6 +4241,71 @@
         <v>48</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>71</v>
+      </c>
+      <c r="C59" t="n">
+        <v>146</v>
+      </c>
+      <c r="D59" t="n">
+        <v>38</v>
+      </c>
+      <c r="E59" t="n">
+        <v>39</v>
+      </c>
+      <c r="F59" t="n">
+        <v>97</v>
+      </c>
+      <c r="G59" t="n">
+        <v>23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>14</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J59" t="n">
+        <v>30</v>
+      </c>
+      <c r="K59" t="n">
+        <v>303</v>
+      </c>
+      <c r="L59" t="n">
+        <v>26</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>6</v>
+      </c>
+      <c r="O59" t="n">
+        <v>81.89980705369301</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.295507455</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>11.60592618064211</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.941588785046729</v>
+      </c>
+      <c r="S59" t="n">
+        <v>16.2303664921466</v>
+      </c>
+      <c r="T59" t="n">
+        <v>35.57245213910161</v>
+      </c>
+      <c r="U59" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4306,6 +4306,71 @@
         <v>46</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>71</v>
+      </c>
+      <c r="C60" t="n">
+        <v>160</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28</v>
+      </c>
+      <c r="E60" t="n">
+        <v>38</v>
+      </c>
+      <c r="F60" t="n">
+        <v>79</v>
+      </c>
+      <c r="G60" t="n">
+        <v>34</v>
+      </c>
+      <c r="H60" t="n">
+        <v>17</v>
+      </c>
+      <c r="I60" t="n">
+        <v>19</v>
+      </c>
+      <c r="J60" t="n">
+        <v>32</v>
+      </c>
+      <c r="K60" t="n">
+        <v>288</v>
+      </c>
+      <c r="L60" t="n">
+        <v>33</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="n">
+        <v>79.33433099072329</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.281668435</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>10.70673588094286</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.971896955503513</v>
+      </c>
+      <c r="S60" t="n">
+        <v>18.56763925729443</v>
+      </c>
+      <c r="T60" t="n">
+        <v>35.40849261001154</v>
+      </c>
+      <c r="U60" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4371,6 +4371,71 @@
         <v>50</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>66</v>
+      </c>
+      <c r="C61" t="n">
+        <v>152</v>
+      </c>
+      <c r="D61" t="n">
+        <v>24</v>
+      </c>
+      <c r="E61" t="n">
+        <v>36</v>
+      </c>
+      <c r="F61" t="n">
+        <v>94</v>
+      </c>
+      <c r="G61" t="n">
+        <v>36</v>
+      </c>
+      <c r="H61" t="n">
+        <v>17</v>
+      </c>
+      <c r="I61" t="n">
+        <v>25</v>
+      </c>
+      <c r="J61" t="n">
+        <v>31</v>
+      </c>
+      <c r="K61" t="n">
+        <v>277</v>
+      </c>
+      <c r="L61" t="n">
+        <v>36</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>8</v>
+      </c>
+      <c r="O61" t="n">
+        <v>80.10604924252291</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.4232230025</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>9.791771908085716</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.974117647058824</v>
+      </c>
+      <c r="S61" t="n">
+        <v>19.89389920424403</v>
+      </c>
+      <c r="T61" t="n">
+        <v>40.15948355614518</v>
+      </c>
+      <c r="U61" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4436,6 +4436,71 @@
         <v>48</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>67</v>
+      </c>
+      <c r="C62" t="n">
+        <v>150</v>
+      </c>
+      <c r="D62" t="n">
+        <v>24</v>
+      </c>
+      <c r="E62" t="n">
+        <v>35</v>
+      </c>
+      <c r="F62" t="n">
+        <v>96</v>
+      </c>
+      <c r="G62" t="n">
+        <v>36</v>
+      </c>
+      <c r="H62" t="n">
+        <v>17</v>
+      </c>
+      <c r="I62" t="n">
+        <v>28</v>
+      </c>
+      <c r="J62" t="n">
+        <v>29</v>
+      </c>
+      <c r="K62" t="n">
+        <v>276</v>
+      </c>
+      <c r="L62" t="n">
+        <v>38</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>6</v>
+      </c>
+      <c r="O62" t="n">
+        <v>80.0521120985287</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.4793221899999999</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>9.781980206835714</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4.004705882352941</v>
+      </c>
+      <c r="S62" t="n">
+        <v>19.36339522546419</v>
+      </c>
+      <c r="T62" t="n">
+        <v>40.34325870078866</v>
+      </c>
+      <c r="U62" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4501,71 @@
         <v>48</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>68</v>
+      </c>
+      <c r="C63" t="n">
+        <v>162</v>
+      </c>
+      <c r="D63" t="n">
+        <v>22</v>
+      </c>
+      <c r="E63" t="n">
+        <v>36</v>
+      </c>
+      <c r="F63" t="n">
+        <v>82</v>
+      </c>
+      <c r="G63" t="n">
+        <v>38</v>
+      </c>
+      <c r="H63" t="n">
+        <v>16</v>
+      </c>
+      <c r="I63" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>28</v>
+      </c>
+      <c r="K63" t="n">
+        <v>278</v>
+      </c>
+      <c r="L63" t="n">
+        <v>38</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>9</v>
+      </c>
+      <c r="O63" t="n">
+        <v>82.79286264029015</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.5370396</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>10.11070359397857</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4.004716981132075</v>
+      </c>
+      <c r="S63" t="n">
+        <v>19.89389920424403</v>
+      </c>
+      <c r="T63" t="n">
+        <v>37.81303138309167</v>
+      </c>
+      <c r="U63" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4566,6 +4566,71 @@
         <v>47</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>68</v>
+      </c>
+      <c r="C64" t="n">
+        <v>162</v>
+      </c>
+      <c r="D64" t="n">
+        <v>23</v>
+      </c>
+      <c r="E64" t="n">
+        <v>34</v>
+      </c>
+      <c r="F64" t="n">
+        <v>81</v>
+      </c>
+      <c r="G64" t="n">
+        <v>38</v>
+      </c>
+      <c r="H64" t="n">
+        <v>17</v>
+      </c>
+      <c r="I64" t="n">
+        <v>23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>28</v>
+      </c>
+      <c r="K64" t="n">
+        <v>277</v>
+      </c>
+      <c r="L64" t="n">
+        <v>37</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>11</v>
+      </c>
+      <c r="O64" t="n">
+        <v>82.81296081780492</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.5710854200000001</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>10.12186302255</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4.018912529550827</v>
+      </c>
+      <c r="S64" t="n">
+        <v>20.21276595744681</v>
+      </c>
+      <c r="T64" t="n">
+        <v>37.69521595962067</v>
+      </c>
+      <c r="U64" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4631,6 +4631,71 @@
         <v>47</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>68</v>
+      </c>
+      <c r="C65" t="n">
+        <v>147</v>
+      </c>
+      <c r="D65" t="n">
+        <v>23</v>
+      </c>
+      <c r="E65" t="n">
+        <v>32</v>
+      </c>
+      <c r="F65" t="n">
+        <v>97</v>
+      </c>
+      <c r="G65" t="n">
+        <v>37</v>
+      </c>
+      <c r="H65" t="n">
+        <v>17</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34</v>
+      </c>
+      <c r="J65" t="n">
+        <v>26</v>
+      </c>
+      <c r="K65" t="n">
+        <v>273</v>
+      </c>
+      <c r="L65" t="n">
+        <v>35</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>9</v>
+      </c>
+      <c r="O65" t="n">
+        <v>82.82755578319527</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8274711374999999</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>8.437411114514285</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4.030878859857483</v>
+      </c>
+      <c r="S65" t="n">
+        <v>18.56763925729443</v>
+      </c>
+      <c r="T65" t="n">
+        <v>40.6589847656951</v>
+      </c>
+      <c r="U65" t="n">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4696,6 +4696,71 @@
         <v>44</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>70</v>
+      </c>
+      <c r="C66" t="n">
+        <v>164</v>
+      </c>
+      <c r="D66" t="n">
+        <v>22</v>
+      </c>
+      <c r="E66" t="n">
+        <v>33</v>
+      </c>
+      <c r="F66" t="n">
+        <v>76</v>
+      </c>
+      <c r="G66" t="n">
+        <v>36</v>
+      </c>
+      <c r="H66" t="n">
+        <v>16</v>
+      </c>
+      <c r="I66" t="n">
+        <v>30</v>
+      </c>
+      <c r="J66" t="n">
+        <v>25</v>
+      </c>
+      <c r="K66" t="n">
+        <v>269</v>
+      </c>
+      <c r="L66" t="n">
+        <v>31</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>14</v>
+      </c>
+      <c r="O66" t="n">
+        <v>83.44066559204742</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.65547762</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>10.53146273808571</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4.031175059952038</v>
+      </c>
+      <c r="S66" t="n">
+        <v>18.97018970189702</v>
+      </c>
+      <c r="T66" t="n">
+        <v>36.34255466288374</v>
+      </c>
+      <c r="U66" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4761,6 +4761,71 @@
         <v>48</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>76</v>
+      </c>
+      <c r="C67" t="n">
+        <v>150</v>
+      </c>
+      <c r="D67" t="n">
+        <v>29</v>
+      </c>
+      <c r="E67" t="n">
+        <v>26</v>
+      </c>
+      <c r="F67" t="n">
+        <v>98</v>
+      </c>
+      <c r="G67" t="n">
+        <v>29</v>
+      </c>
+      <c r="H67" t="n">
+        <v>16</v>
+      </c>
+      <c r="I67" t="n">
+        <v>28</v>
+      </c>
+      <c r="J67" t="n">
+        <v>20</v>
+      </c>
+      <c r="K67" t="n">
+        <v>299</v>
+      </c>
+      <c r="L67" t="n">
+        <v>31</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>9</v>
+      </c>
+      <c r="O67" t="n">
+        <v>86.54578314303349</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.67990324375</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>8.751957714464286</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3.867924528301887</v>
+      </c>
+      <c r="S67" t="n">
+        <v>15.50387596899225</v>
+      </c>
+      <c r="T67" t="n">
+        <v>37.34459843888555</v>
+      </c>
+      <c r="U67" t="n">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4826,6 +4826,71 @@
         <v>37</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>77</v>
+      </c>
+      <c r="C68" t="n">
+        <v>163</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33</v>
+      </c>
+      <c r="E68" t="n">
+        <v>28</v>
+      </c>
+      <c r="F68" t="n">
+        <v>81</v>
+      </c>
+      <c r="G68" t="n">
+        <v>33</v>
+      </c>
+      <c r="H68" t="n">
+        <v>15</v>
+      </c>
+      <c r="I68" t="n">
+        <v>23</v>
+      </c>
+      <c r="J68" t="n">
+        <v>23</v>
+      </c>
+      <c r="K68" t="n">
+        <v>297</v>
+      </c>
+      <c r="L68" t="n">
+        <v>33</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>13</v>
+      </c>
+      <c r="O68" t="n">
+        <v>85.36452606784697</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.6405247962499999</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>9.032460844999999</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3.762790697674419</v>
+      </c>
+      <c r="S68" t="n">
+        <v>17.73778920308483</v>
+      </c>
+      <c r="T68" t="n">
+        <v>33.47849151708241</v>
+      </c>
+      <c r="U68" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4891,6 +4891,71 @@
         <v>41</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>72</v>
+      </c>
+      <c r="C69" t="n">
+        <v>147</v>
+      </c>
+      <c r="D69" t="n">
+        <v>36</v>
+      </c>
+      <c r="E69" t="n">
+        <v>27</v>
+      </c>
+      <c r="F69" t="n">
+        <v>103</v>
+      </c>
+      <c r="G69" t="n">
+        <v>41</v>
+      </c>
+      <c r="H69" t="n">
+        <v>16</v>
+      </c>
+      <c r="I69" t="n">
+        <v>26</v>
+      </c>
+      <c r="J69" t="n">
+        <v>32</v>
+      </c>
+      <c r="K69" t="n">
+        <v>310</v>
+      </c>
+      <c r="L69" t="n">
+        <v>28</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>12</v>
+      </c>
+      <c r="O69" t="n">
+        <v>83.57847511747921</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.6059606574999999</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>9.145829976071429</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3.805429864253393</v>
+      </c>
+      <c r="S69" t="n">
+        <v>17.64705882352941</v>
+      </c>
+      <c r="T69" t="n">
+        <v>38.59541519874199</v>
+      </c>
+      <c r="U69" t="n">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4956,6 +4956,71 @@
         <v>34</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>74</v>
+      </c>
+      <c r="C70" t="n">
+        <v>161</v>
+      </c>
+      <c r="D70" t="n">
+        <v>34</v>
+      </c>
+      <c r="E70" t="n">
+        <v>29</v>
+      </c>
+      <c r="F70" t="n">
+        <v>87</v>
+      </c>
+      <c r="G70" t="n">
+        <v>36</v>
+      </c>
+      <c r="H70" t="n">
+        <v>16</v>
+      </c>
+      <c r="I70" t="n">
+        <v>22</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="n">
+        <v>309</v>
+      </c>
+      <c r="L70" t="n">
+        <v>33</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>13</v>
+      </c>
+      <c r="O70" t="n">
+        <v>82.56170033139361</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.46702809375</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>9.7406948175</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3.77116704805492</v>
+      </c>
+      <c r="S70" t="n">
+        <v>18.06930693069307</v>
+      </c>
+      <c r="T70" t="n">
+        <v>35.22439084233854</v>
+      </c>
+      <c r="U70" t="n">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5021,6 +5021,71 @@
         <v>33</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>75</v>
+      </c>
+      <c r="C71" t="n">
+        <v>161</v>
+      </c>
+      <c r="D71" t="n">
+        <v>34</v>
+      </c>
+      <c r="E71" t="n">
+        <v>30</v>
+      </c>
+      <c r="F71" t="n">
+        <v>85</v>
+      </c>
+      <c r="G71" t="n">
+        <v>36</v>
+      </c>
+      <c r="H71" t="n">
+        <v>16</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24</v>
+      </c>
+      <c r="J71" t="n">
+        <v>25</v>
+      </c>
+      <c r="K71" t="n">
+        <v>306</v>
+      </c>
+      <c r="L71" t="n">
+        <v>33</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>12</v>
+      </c>
+      <c r="O71" t="n">
+        <v>83.39808353042307</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.42919739625</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>10.75536689642857</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3.752860411899313</v>
+      </c>
+      <c r="S71" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>34.61967958447629</v>
+      </c>
+      <c r="U71" t="n">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5086,6 +5086,71 @@
         <v>37</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>72</v>
+      </c>
+      <c r="C72" t="n">
+        <v>150</v>
+      </c>
+      <c r="D72" t="n">
+        <v>31</v>
+      </c>
+      <c r="E72" t="n">
+        <v>26</v>
+      </c>
+      <c r="F72" t="n">
+        <v>102</v>
+      </c>
+      <c r="G72" t="n">
+        <v>37</v>
+      </c>
+      <c r="H72" t="n">
+        <v>16</v>
+      </c>
+      <c r="I72" t="n">
+        <v>37</v>
+      </c>
+      <c r="J72" t="n">
+        <v>19</v>
+      </c>
+      <c r="K72" t="n">
+        <v>296</v>
+      </c>
+      <c r="L72" t="n">
+        <v>40</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>7</v>
+      </c>
+      <c r="O72" t="n">
+        <v>84.5553582465913</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.48552277125</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>9.079195407678572</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3.702764976958525</v>
+      </c>
+      <c r="S72" t="n">
+        <v>16.54135338345865</v>
+      </c>
+      <c r="T72" t="n">
+        <v>39.07070575160871</v>
+      </c>
+      <c r="U72" t="n">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5151,6 +5151,71 @@
         <v>35</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>74</v>
+      </c>
+      <c r="C73" t="n">
+        <v>164</v>
+      </c>
+      <c r="D73" t="n">
+        <v>25</v>
+      </c>
+      <c r="E73" t="n">
+        <v>28</v>
+      </c>
+      <c r="F73" t="n">
+        <v>84</v>
+      </c>
+      <c r="G73" t="n">
+        <v>42</v>
+      </c>
+      <c r="H73" t="n">
+        <v>15</v>
+      </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>16</v>
+      </c>
+      <c r="K73" t="n">
+        <v>301</v>
+      </c>
+      <c r="L73" t="n">
+        <v>36</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>11</v>
+      </c>
+      <c r="O73" t="n">
+        <v>84.21343657096565</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.4134272425</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>9.398322668750001</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3.729166666666667</v>
+      </c>
+      <c r="S73" t="n">
+        <v>15.98984771573604</v>
+      </c>
+      <c r="T73" t="n">
+        <v>36.54833782025659</v>
+      </c>
+      <c r="U73" t="n">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U73"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5216,6 +5216,71 @@
         <v>38</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="n">
+        <v>164</v>
+      </c>
+      <c r="D74" t="n">
+        <v>26</v>
+      </c>
+      <c r="E74" t="n">
+        <v>27</v>
+      </c>
+      <c r="F74" t="n">
+        <v>85</v>
+      </c>
+      <c r="G74" t="n">
+        <v>42</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>15</v>
+      </c>
+      <c r="K74" t="n">
+        <v>300</v>
+      </c>
+      <c r="L74" t="n">
+        <v>36</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>10</v>
+      </c>
+      <c r="O74" t="n">
+        <v>84.78727208990686</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.418292085</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>9.303391948750001</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3.731481481481481</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15.56122448979592</v>
+      </c>
+      <c r="T74" t="n">
+        <v>36.77865240062532</v>
+      </c>
+      <c r="U74" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5281,6 +5281,71 @@
         <v>40</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>158</v>
+      </c>
+      <c r="D75" t="n">
+        <v>24</v>
+      </c>
+      <c r="E75" t="n">
+        <v>24</v>
+      </c>
+      <c r="F75" t="n">
+        <v>103</v>
+      </c>
+      <c r="G75" t="n">
+        <v>36</v>
+      </c>
+      <c r="H75" t="n">
+        <v>13</v>
+      </c>
+      <c r="I75" t="n">
+        <v>39</v>
+      </c>
+      <c r="J75" t="n">
+        <v>16</v>
+      </c>
+      <c r="K75" t="n">
+        <v>290</v>
+      </c>
+      <c r="L75" t="n">
+        <v>33</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>9</v>
+      </c>
+      <c r="O75" t="n">
+        <v>85.52284655963996</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.57836040375</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>8.612859043035714</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3.703016241299304</v>
+      </c>
+      <c r="S75" t="n">
+        <v>14.98708010335917</v>
+      </c>
+      <c r="T75" t="n">
+        <v>39.55850425301613</v>
+      </c>
+      <c r="U75" t="n">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5346,6 +5346,71 @@
         <v>44</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>73</v>
+      </c>
+      <c r="C76" t="n">
+        <v>168</v>
+      </c>
+      <c r="D76" t="n">
+        <v>32</v>
+      </c>
+      <c r="E76" t="n">
+        <v>25</v>
+      </c>
+      <c r="F76" t="n">
+        <v>88</v>
+      </c>
+      <c r="G76" t="n">
+        <v>41</v>
+      </c>
+      <c r="H76" t="n">
+        <v>14</v>
+      </c>
+      <c r="I76" t="n">
+        <v>34</v>
+      </c>
+      <c r="J76" t="n">
+        <v>23</v>
+      </c>
+      <c r="K76" t="n">
+        <v>307</v>
+      </c>
+      <c r="L76" t="n">
+        <v>30</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>8</v>
+      </c>
+      <c r="O76" t="n">
+        <v>83.20476738764148</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.558141505</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>10.34555482178571</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3.589569160997732</v>
+      </c>
+      <c r="S76" t="n">
+        <v>15.17412935323383</v>
+      </c>
+      <c r="T76" t="n">
+        <v>36.10183631833564</v>
+      </c>
+      <c r="U76" t="n">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5411,6 +5411,71 @@
         <v>39</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>73</v>
+      </c>
+      <c r="C77" t="n">
+        <v>179</v>
+      </c>
+      <c r="D77" t="n">
+        <v>31</v>
+      </c>
+      <c r="E77" t="n">
+        <v>18</v>
+      </c>
+      <c r="F77" t="n">
+        <v>92</v>
+      </c>
+      <c r="G77" t="n">
+        <v>43</v>
+      </c>
+      <c r="H77" t="n">
+        <v>12</v>
+      </c>
+      <c r="I77" t="n">
+        <v>30</v>
+      </c>
+      <c r="J77" t="n">
+        <v>25</v>
+      </c>
+      <c r="K77" t="n">
+        <v>310</v>
+      </c>
+      <c r="L77" t="n">
+        <v>39</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>12</v>
+      </c>
+      <c r="O77" t="n">
+        <v>80.3629991209461</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.6757156525000001</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>10.57254960078947</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3.607142857142857</v>
+      </c>
+      <c r="S77" t="n">
+        <v>18.26923076923077</v>
+      </c>
+      <c r="T77" t="n">
+        <v>36.97982657063141</v>
+      </c>
+      <c r="U77" t="n">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5476,6 +5476,71 @@
         <v>32</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>83</v>
+      </c>
+      <c r="C78" t="n">
+        <v>170</v>
+      </c>
+      <c r="D78" t="n">
+        <v>27</v>
+      </c>
+      <c r="E78" t="n">
+        <v>25</v>
+      </c>
+      <c r="F78" t="n">
+        <v>90</v>
+      </c>
+      <c r="G78" t="n">
+        <v>39</v>
+      </c>
+      <c r="H78" t="n">
+        <v>13</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>25</v>
+      </c>
+      <c r="K78" t="n">
+        <v>311</v>
+      </c>
+      <c r="L78" t="n">
+        <v>35</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>13</v>
+      </c>
+      <c r="O78" t="n">
+        <v>84.17400439100021</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.55793613875</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>10.51195098236842</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3.507829977628635</v>
+      </c>
+      <c r="S78" t="n">
+        <v>17.76155717761557</v>
+      </c>
+      <c r="T78" t="n">
+        <v>35.01861105991693</v>
+      </c>
+      <c r="U78" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,6 +5541,71 @@
         <v>36</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="n">
+        <v>176</v>
+      </c>
+      <c r="D79" t="n">
+        <v>25</v>
+      </c>
+      <c r="E79" t="n">
+        <v>25</v>
+      </c>
+      <c r="F79" t="n">
+        <v>89</v>
+      </c>
+      <c r="G79" t="n">
+        <v>40</v>
+      </c>
+      <c r="H79" t="n">
+        <v>13</v>
+      </c>
+      <c r="I79" t="n">
+        <v>37</v>
+      </c>
+      <c r="J79" t="n">
+        <v>15</v>
+      </c>
+      <c r="K79" t="n">
+        <v>296</v>
+      </c>
+      <c r="L79" t="n">
+        <v>44</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>12</v>
+      </c>
+      <c r="O79" t="n">
+        <v>82.52967708708255</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.660946</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>10.42274090078947</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3.585201793721973</v>
+      </c>
+      <c r="S79" t="n">
+        <v>17.57425742574257</v>
+      </c>
+      <c r="T79" t="n">
+        <v>36.29299212040665</v>
+      </c>
+      <c r="U79" t="n">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5606,6 +5606,71 @@
         <v>42</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>154</v>
+      </c>
+      <c r="D80" t="n">
+        <v>24</v>
+      </c>
+      <c r="E80" t="n">
+        <v>32</v>
+      </c>
+      <c r="F80" t="n">
+        <v>104</v>
+      </c>
+      <c r="G80" t="n">
+        <v>38</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15</v>
+      </c>
+      <c r="I80" t="n">
+        <v>37</v>
+      </c>
+      <c r="J80" t="n">
+        <v>11</v>
+      </c>
+      <c r="K80" t="n">
+        <v>297</v>
+      </c>
+      <c r="L80" t="n">
+        <v>42</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>15</v>
+      </c>
+      <c r="O80" t="n">
+        <v>81.96869371969717</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.7430458062500001</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>8.695110006071429</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3.533632286995516</v>
+      </c>
+      <c r="S80" t="n">
+        <v>16.91542288557214</v>
+      </c>
+      <c r="T80" t="n">
+        <v>38.8124050277487</v>
+      </c>
+      <c r="U80" t="n">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5671,6 +5671,71 @@
         <v>44</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>150</v>
+      </c>
+      <c r="D81" t="n">
+        <v>24</v>
+      </c>
+      <c r="E81" t="n">
+        <v>32</v>
+      </c>
+      <c r="F81" t="n">
+        <v>111</v>
+      </c>
+      <c r="G81" t="n">
+        <v>36</v>
+      </c>
+      <c r="H81" t="n">
+        <v>14</v>
+      </c>
+      <c r="I81" t="n">
+        <v>41</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12</v>
+      </c>
+      <c r="K81" t="n">
+        <v>289</v>
+      </c>
+      <c r="L81" t="n">
+        <v>42</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>15</v>
+      </c>
+      <c r="O81" t="n">
+        <v>80.6224686311317</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.9348159137500001</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>8.274383643947369</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3.524663677130045</v>
+      </c>
+      <c r="S81" t="n">
+        <v>17.29323308270677</v>
+      </c>
+      <c r="T81" t="n">
+        <v>39.83147709618432</v>
+      </c>
+      <c r="U81" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5736,6 +5736,71 @@
         <v>47</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="n">
+        <v>166</v>
+      </c>
+      <c r="D82" t="n">
+        <v>45</v>
+      </c>
+      <c r="E82" t="n">
+        <v>34</v>
+      </c>
+      <c r="F82" t="n">
+        <v>91</v>
+      </c>
+      <c r="G82" t="n">
+        <v>44</v>
+      </c>
+      <c r="H82" t="n">
+        <v>15</v>
+      </c>
+      <c r="I82" t="n">
+        <v>34</v>
+      </c>
+      <c r="J82" t="n">
+        <v>23</v>
+      </c>
+      <c r="K82" t="n">
+        <v>315</v>
+      </c>
+      <c r="L82" t="n">
+        <v>45</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>10</v>
+      </c>
+      <c r="O82" t="n">
+        <v>81.46846936595952</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.9211287937500001</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>9.532569031842105</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3.317226890756303</v>
+      </c>
+      <c r="S82" t="n">
+        <v>18.26697892271663</v>
+      </c>
+      <c r="T82" t="n">
+        <v>32.62356629482126</v>
+      </c>
+      <c r="U82" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5801,6 +5801,71 @@
         <v>49</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>80</v>
+      </c>
+      <c r="C83" t="n">
+        <v>142</v>
+      </c>
+      <c r="D83" t="n">
+        <v>41</v>
+      </c>
+      <c r="E83" t="n">
+        <v>38</v>
+      </c>
+      <c r="F83" t="n">
+        <v>114</v>
+      </c>
+      <c r="G83" t="n">
+        <v>45</v>
+      </c>
+      <c r="H83" t="n">
+        <v>15</v>
+      </c>
+      <c r="I83" t="n">
+        <v>43</v>
+      </c>
+      <c r="J83" t="n">
+        <v>26</v>
+      </c>
+      <c r="K83" t="n">
+        <v>302</v>
+      </c>
+      <c r="L83" t="n">
+        <v>43</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>11</v>
+      </c>
+      <c r="O83" t="n">
+        <v>81.93290382566433</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.99580250125</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>9.07268747605263</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3.330526315789474</v>
+      </c>
+      <c r="S83" t="n">
+        <v>18.82352941176471</v>
+      </c>
+      <c r="T83" t="n">
+        <v>37.75966969359501</v>
+      </c>
+      <c r="U83" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5866,6 +5866,71 @@
         <v>50</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>78</v>
+      </c>
+      <c r="C84" t="n">
+        <v>165</v>
+      </c>
+      <c r="D84" t="n">
+        <v>38</v>
+      </c>
+      <c r="E84" t="n">
+        <v>36</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100</v>
+      </c>
+      <c r="G84" t="n">
+        <v>44</v>
+      </c>
+      <c r="H84" t="n">
+        <v>14</v>
+      </c>
+      <c r="I84" t="n">
+        <v>47</v>
+      </c>
+      <c r="J84" t="n">
+        <v>29</v>
+      </c>
+      <c r="K84" t="n">
+        <v>293</v>
+      </c>
+      <c r="L84" t="n">
+        <v>41</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>12</v>
+      </c>
+      <c r="O84" t="n">
+        <v>79.38974697763678</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.2974106575</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>9.347245484210525</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3.355789473684211</v>
+      </c>
+      <c r="S84" t="n">
+        <v>19.43127962085308</v>
+      </c>
+      <c r="T84" t="n">
+        <v>35.85874320425868</v>
+      </c>
+      <c r="U84" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5931,6 +5931,71 @@
         <v>53</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>79</v>
+      </c>
+      <c r="C85" t="n">
+        <v>158</v>
+      </c>
+      <c r="D85" t="n">
+        <v>69</v>
+      </c>
+      <c r="E85" t="n">
+        <v>37</v>
+      </c>
+      <c r="F85" t="n">
+        <v>117</v>
+      </c>
+      <c r="G85" t="n">
+        <v>30</v>
+      </c>
+      <c r="H85" t="n">
+        <v>15</v>
+      </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>28</v>
+      </c>
+      <c r="K85" t="n">
+        <v>334</v>
+      </c>
+      <c r="L85" t="n">
+        <v>39</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>9</v>
+      </c>
+      <c r="O85" t="n">
+        <v>78.60029233119899</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.050315775</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>10.85921003053571</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3.126732673267327</v>
+      </c>
+      <c r="S85" t="n">
+        <v>16.77704194260486</v>
+      </c>
+      <c r="T85" t="n">
+        <v>33.1167460042849</v>
+      </c>
+      <c r="U85" t="n">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5996,6 +5996,71 @@
         <v>52</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>80</v>
+      </c>
+      <c r="C86" t="n">
+        <v>153</v>
+      </c>
+      <c r="D86" t="n">
+        <v>67</v>
+      </c>
+      <c r="E86" t="n">
+        <v>39</v>
+      </c>
+      <c r="F86" t="n">
+        <v>120</v>
+      </c>
+      <c r="G86" t="n">
+        <v>32</v>
+      </c>
+      <c r="H86" t="n">
+        <v>15</v>
+      </c>
+      <c r="I86" t="n">
+        <v>41</v>
+      </c>
+      <c r="J86" t="n">
+        <v>29</v>
+      </c>
+      <c r="K86" t="n">
+        <v>325</v>
+      </c>
+      <c r="L86" t="n">
+        <v>42</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>10</v>
+      </c>
+      <c r="O86" t="n">
+        <v>77.39444490948065</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.9707338212500001</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>10.30069453035714</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3.114624505928854</v>
+      </c>
+      <c r="S86" t="n">
+        <v>18.12080536912752</v>
+      </c>
+      <c r="T86" t="n">
+        <v>33.73919274304821</v>
+      </c>
+      <c r="U86" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6061,6 +6061,71 @@
         <v>59</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>76</v>
+      </c>
+      <c r="C87" t="n">
+        <v>162</v>
+      </c>
+      <c r="D87" t="n">
+        <v>64</v>
+      </c>
+      <c r="E87" t="n">
+        <v>40</v>
+      </c>
+      <c r="F87" t="n">
+        <v>116</v>
+      </c>
+      <c r="G87" t="n">
+        <v>33</v>
+      </c>
+      <c r="H87" t="n">
+        <v>14</v>
+      </c>
+      <c r="I87" t="n">
+        <v>43</v>
+      </c>
+      <c r="J87" t="n">
+        <v>35</v>
+      </c>
+      <c r="K87" t="n">
+        <v>319</v>
+      </c>
+      <c r="L87" t="n">
+        <v>35</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>9</v>
+      </c>
+      <c r="O87" t="n">
+        <v>79.32382082233389</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.7658956837500001</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>10.67454472714286</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3.213861386138614</v>
+      </c>
+      <c r="S87" t="n">
+        <v>17.91383219954649</v>
+      </c>
+      <c r="T87" t="n">
+        <v>34.25015222314745</v>
+      </c>
+      <c r="U87" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6126,6 +6126,71 @@
         <v>64</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>80</v>
+      </c>
+      <c r="C88" t="n">
+        <v>156</v>
+      </c>
+      <c r="D88" t="n">
+        <v>52</v>
+      </c>
+      <c r="E88" t="n">
+        <v>52</v>
+      </c>
+      <c r="F88" t="n">
+        <v>118</v>
+      </c>
+      <c r="G88" t="n">
+        <v>31</v>
+      </c>
+      <c r="H88" t="n">
+        <v>13</v>
+      </c>
+      <c r="I88" t="n">
+        <v>37</v>
+      </c>
+      <c r="J88" t="n">
+        <v>32</v>
+      </c>
+      <c r="K88" t="n">
+        <v>313</v>
+      </c>
+      <c r="L88" t="n">
+        <v>43</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>10</v>
+      </c>
+      <c r="O88" t="n">
+        <v>80.91934525184656</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.7207373899999999</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>10.25402556839286</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3.217131474103585</v>
+      </c>
+      <c r="S88" t="n">
+        <v>19.54022988505747</v>
+      </c>
+      <c r="T88" t="n">
+        <v>35.13011317311005</v>
+      </c>
+      <c r="U88" t="n">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6191,6 +6191,71 @@
         <v>67</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>75</v>
+      </c>
+      <c r="C89" t="n">
+        <v>167</v>
+      </c>
+      <c r="D89" t="n">
+        <v>73</v>
+      </c>
+      <c r="E89" t="n">
+        <v>45</v>
+      </c>
+      <c r="F89" t="n">
+        <v>117</v>
+      </c>
+      <c r="G89" t="n">
+        <v>34</v>
+      </c>
+      <c r="H89" t="n">
+        <v>14</v>
+      </c>
+      <c r="I89" t="n">
+        <v>32</v>
+      </c>
+      <c r="J89" t="n">
+        <v>35</v>
+      </c>
+      <c r="K89" t="n">
+        <v>345</v>
+      </c>
+      <c r="L89" t="n">
+        <v>37</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>14</v>
+      </c>
+      <c r="O89" t="n">
+        <v>77.37475733656707</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.5098267387500001</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>11.319314615</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3.114285714285714</v>
+      </c>
+      <c r="S89" t="n">
+        <v>18.57451403887689</v>
+      </c>
+      <c r="T89" t="n">
+        <v>33.24529178244337</v>
+      </c>
+      <c r="U89" t="n">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6256,6 +6256,71 @@
         <v>62</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>75</v>
+      </c>
+      <c r="C90" t="n">
+        <v>162</v>
+      </c>
+      <c r="D90" t="n">
+        <v>58</v>
+      </c>
+      <c r="E90" t="n">
+        <v>52</v>
+      </c>
+      <c r="F90" t="n">
+        <v>123</v>
+      </c>
+      <c r="G90" t="n">
+        <v>40</v>
+      </c>
+      <c r="H90" t="n">
+        <v>14</v>
+      </c>
+      <c r="I90" t="n">
+        <v>46</v>
+      </c>
+      <c r="J90" t="n">
+        <v>29</v>
+      </c>
+      <c r="K90" t="n">
+        <v>327</v>
+      </c>
+      <c r="L90" t="n">
+        <v>40</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>18</v>
+      </c>
+      <c r="O90" t="n">
+        <v>76.33285808050444</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.908752285625</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>10.45389102303572</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3.234732824427481</v>
+      </c>
+      <c r="S90" t="n">
+        <v>18.91304347826087</v>
+      </c>
+      <c r="T90" t="n">
+        <v>36.77625995794639</v>
+      </c>
+      <c r="U90" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6321,6 +6321,71 @@
         <v>64</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>82</v>
+      </c>
+      <c r="C91" t="n">
+        <v>161</v>
+      </c>
+      <c r="D91" t="n">
+        <v>57</v>
+      </c>
+      <c r="E91" t="n">
+        <v>52</v>
+      </c>
+      <c r="F91" t="n">
+        <v>119</v>
+      </c>
+      <c r="G91" t="n">
+        <v>39</v>
+      </c>
+      <c r="H91" t="n">
+        <v>14</v>
+      </c>
+      <c r="I91" t="n">
+        <v>45</v>
+      </c>
+      <c r="J91" t="n">
+        <v>25</v>
+      </c>
+      <c r="K91" t="n">
+        <v>330</v>
+      </c>
+      <c r="L91" t="n">
+        <v>41</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>15</v>
+      </c>
+      <c r="O91" t="n">
+        <v>78.30175957303703</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.7974046106250001</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>10.51875287571429</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3.240458015267175</v>
+      </c>
+      <c r="S91" t="n">
+        <v>17.76315789473684</v>
+      </c>
+      <c r="T91" t="n">
+        <v>34.54406681615806</v>
+      </c>
+      <c r="U91" t="n">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6386,6 +6386,71 @@
         <v>68</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>82</v>
+      </c>
+      <c r="C92" t="n">
+        <v>155</v>
+      </c>
+      <c r="D92" t="n">
+        <v>58</v>
+      </c>
+      <c r="E92" t="n">
+        <v>55</v>
+      </c>
+      <c r="F92" t="n">
+        <v>125</v>
+      </c>
+      <c r="G92" t="n">
+        <v>40</v>
+      </c>
+      <c r="H92" t="n">
+        <v>13</v>
+      </c>
+      <c r="I92" t="n">
+        <v>49</v>
+      </c>
+      <c r="J92" t="n">
+        <v>21</v>
+      </c>
+      <c r="K92" t="n">
+        <v>333</v>
+      </c>
+      <c r="L92" t="n">
+        <v>42</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>16</v>
+      </c>
+      <c r="O92" t="n">
+        <v>76.79276414310193</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.8725335725</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>10.14844240302679</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3.274621212121212</v>
+      </c>
+      <c r="S92" t="n">
+        <v>17.13665943600868</v>
+      </c>
+      <c r="T92" t="n">
+        <v>35.35107430910321</v>
+      </c>
+      <c r="U92" t="n">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6451,6 +6451,71 @@
         <v>67</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>81</v>
+      </c>
+      <c r="C93" t="n">
+        <v>154</v>
+      </c>
+      <c r="D93" t="n">
+        <v>69</v>
+      </c>
+      <c r="E93" t="n">
+        <v>52</v>
+      </c>
+      <c r="F93" t="n">
+        <v>128</v>
+      </c>
+      <c r="G93" t="n">
+        <v>42</v>
+      </c>
+      <c r="H93" t="n">
+        <v>13</v>
+      </c>
+      <c r="I93" t="n">
+        <v>40</v>
+      </c>
+      <c r="J93" t="n">
+        <v>17</v>
+      </c>
+      <c r="K93" t="n">
+        <v>361</v>
+      </c>
+      <c r="L93" t="n">
+        <v>43</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>16</v>
+      </c>
+      <c r="O93" t="n">
+        <v>79.78380943739236</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.57881070625</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>11.53374032016964</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3.202226345083488</v>
+      </c>
+      <c r="S93" t="n">
+        <v>15.93291404612159</v>
+      </c>
+      <c r="T93" t="n">
+        <v>34.49273689380131</v>
+      </c>
+      <c r="U93" t="n">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6516,6 +6516,71 @@
         <v>62</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>83</v>
+      </c>
+      <c r="C94" t="n">
+        <v>163</v>
+      </c>
+      <c r="D94" t="n">
+        <v>55</v>
+      </c>
+      <c r="E94" t="n">
+        <v>53</v>
+      </c>
+      <c r="F94" t="n">
+        <v>122</v>
+      </c>
+      <c r="G94" t="n">
+        <v>46</v>
+      </c>
+      <c r="H94" t="n">
+        <v>13</v>
+      </c>
+      <c r="I94" t="n">
+        <v>45</v>
+      </c>
+      <c r="J94" t="n">
+        <v>14</v>
+      </c>
+      <c r="K94" t="n">
+        <v>348</v>
+      </c>
+      <c r="L94" t="n">
+        <v>47</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>14</v>
+      </c>
+      <c r="O94" t="n">
+        <v>80.32872115953026</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.64980782875</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>12.2542469838</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3.155140186915888</v>
+      </c>
+      <c r="S94" t="n">
+        <v>16.02564102564103</v>
+      </c>
+      <c r="T94" t="n">
+        <v>35.38563047199852</v>
+      </c>
+      <c r="U94" t="n">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6581,6 +6581,71 @@
         <v>67</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>79</v>
+      </c>
+      <c r="C95" t="n">
+        <v>172</v>
+      </c>
+      <c r="D95" t="n">
+        <v>50</v>
+      </c>
+      <c r="E95" t="n">
+        <v>49</v>
+      </c>
+      <c r="F95" t="n">
+        <v>127</v>
+      </c>
+      <c r="G95" t="n">
+        <v>42</v>
+      </c>
+      <c r="H95" t="n">
+        <v>13</v>
+      </c>
+      <c r="I95" t="n">
+        <v>57</v>
+      </c>
+      <c r="J95" t="n">
+        <v>17</v>
+      </c>
+      <c r="K95" t="n">
+        <v>326</v>
+      </c>
+      <c r="L95" t="n">
+        <v>45</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>16</v>
+      </c>
+      <c r="O95" t="n">
+        <v>76.72058766181024</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.34337377625</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>12.15226934415536</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3.221804511278195</v>
+      </c>
+      <c r="S95" t="n">
+        <v>16.91973969631236</v>
+      </c>
+      <c r="T95" t="n">
+        <v>37.86468057081257</v>
+      </c>
+      <c r="U95" t="n">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:U96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6646,6 +6646,71 @@
         <v>71</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>81</v>
+      </c>
+      <c r="C96" t="n">
+        <v>178</v>
+      </c>
+      <c r="D96" t="n">
+        <v>46</v>
+      </c>
+      <c r="E96" t="n">
+        <v>49</v>
+      </c>
+      <c r="F96" t="n">
+        <v>123</v>
+      </c>
+      <c r="G96" t="n">
+        <v>40</v>
+      </c>
+      <c r="H96" t="n">
+        <v>12</v>
+      </c>
+      <c r="I96" t="n">
+        <v>59</v>
+      </c>
+      <c r="J96" t="n">
+        <v>19</v>
+      </c>
+      <c r="K96" t="n">
+        <v>314</v>
+      </c>
+      <c r="L96" t="n">
+        <v>43</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>16</v>
+      </c>
+      <c r="O96" t="n">
+        <v>76.54208019518379</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1.40889733625</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>11.88445607269056</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3.12476370510397</v>
+      </c>
+      <c r="S96" t="n">
+        <v>17.29490022172949</v>
+      </c>
+      <c r="T96" t="n">
+        <v>37.12764979559326</v>
+      </c>
+      <c r="U96" t="n">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U96"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6711,6 +6711,71 @@
         <v>78</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>74</v>
+      </c>
+      <c r="C97" t="n">
+        <v>184</v>
+      </c>
+      <c r="D97" t="n">
+        <v>43</v>
+      </c>
+      <c r="E97" t="n">
+        <v>49</v>
+      </c>
+      <c r="F97" t="n">
+        <v>124</v>
+      </c>
+      <c r="G97" t="n">
+        <v>36</v>
+      </c>
+      <c r="H97" t="n">
+        <v>12</v>
+      </c>
+      <c r="I97" t="n">
+        <v>73</v>
+      </c>
+      <c r="J97" t="n">
+        <v>17</v>
+      </c>
+      <c r="K97" t="n">
+        <v>288</v>
+      </c>
+      <c r="L97" t="n">
+        <v>37</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>14</v>
+      </c>
+      <c r="O97" t="n">
+        <v>72.64650998922687</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.662401115</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>11.73697141933208</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3.191570881226053</v>
+      </c>
+      <c r="S97" t="n">
+        <v>15.85081585081585</v>
+      </c>
+      <c r="T97" t="n">
+        <v>38.90860746179208</v>
+      </c>
+      <c r="U97" t="n">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АСТ.xlsx
+++ b/Динамика АСТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6776,6 +6776,71 @@
         <v>93</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>76</v>
+      </c>
+      <c r="C98" t="n">
+        <v>193</v>
+      </c>
+      <c r="D98" t="n">
+        <v>42</v>
+      </c>
+      <c r="E98" t="n">
+        <v>49</v>
+      </c>
+      <c r="F98" t="n">
+        <v>117</v>
+      </c>
+      <c r="G98" t="n">
+        <v>32</v>
+      </c>
+      <c r="H98" t="n">
+        <v>13</v>
+      </c>
+      <c r="I98" t="n">
+        <v>72</v>
+      </c>
+      <c r="J98" t="n">
+        <v>16</v>
+      </c>
+      <c r="K98" t="n">
+        <v>281</v>
+      </c>
+      <c r="L98" t="n">
+        <v>35</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>17</v>
+      </c>
+      <c r="O98" t="n">
+        <v>72.89135679927627</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.173292365</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>11.74529100140755</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3.21455938697318</v>
+      </c>
+      <c r="S98" t="n">
+        <v>16.1520190023753</v>
+      </c>
+      <c r="T98" t="n">
+        <v>37.57816688115874</v>
+      </c>
+      <c r="U98" t="n">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
